--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Y)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Y).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Y)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Y).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Y)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Y)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Y)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Y)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,8 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yuc
-Yucca - fam. Agavacées
+          <t>Yuc</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yucca - fam. Agavacées
 Yucca aloifolia - Yucca à fleurs
 Yucca angustifolia - Yucca à feuille étroite
 Yucca elephantipes - Yucca éléphant
@@ -517,9 +534,43 @@
 Yucca flaccida
 Yucca glauca - Yucca glauque
 Yucca gloriosa
-Yucca karlsruhensis - Yucca de Karlsruhe
-Yus
-Yushania
+Yucca karlsruhensis - Yucca de Karlsruhe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Y)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Y)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yushania
 Yushiana anceps
 Yushania chungii
 Yushania brevipaniculata
